--- a/curriculum.xlsx
+++ b/curriculum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmuschelli/Dropbox/Packages/transcriptr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnmuschelli/Dropbox/ShinyApps/validate_curriculum/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ScM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="61">
   <si>
     <t>PH.140.651</t>
   </si>
@@ -133,13 +133,91 @@
   </si>
   <si>
     <t>PH.550.600</t>
+  </si>
+  <si>
+    <t>Mthds Biostatistics I</t>
+  </si>
+  <si>
+    <t>Mthds Biostatistics III</t>
+  </si>
+  <si>
+    <t>Mthds Biostatistics IV</t>
+  </si>
+  <si>
+    <t>Mthds Biostatistics II</t>
+  </si>
+  <si>
+    <t>Essntls Of Prob And Stat I</t>
+  </si>
+  <si>
+    <t>Essntls Of Prob And Stat II</t>
+  </si>
+  <si>
+    <t>Essntls Of Prob And Stat III</t>
+  </si>
+  <si>
+    <t>Essntls Of Prob And Stat IV</t>
+  </si>
+  <si>
+    <t>Statistical Computing</t>
+  </si>
+  <si>
+    <t>Epidemiologic Inference in Public Health I</t>
+  </si>
+  <si>
+    <t>Academic and Research Ethics at JHSPH</t>
+  </si>
+  <si>
+    <t>Public Health Perspectives on Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Biomedical Sciences </t>
+  </si>
+  <si>
+    <t>Responsible Conduct of Research</t>
+  </si>
+  <si>
+    <t>course_title</t>
+  </si>
+  <si>
+    <t>Adv Methods Biostats I</t>
+  </si>
+  <si>
+    <t>Adv Methods Biostats II</t>
+  </si>
+  <si>
+    <t>Adv Methods Biostats III</t>
+  </si>
+  <si>
+    <t>Adv Methods Biostats IV</t>
+  </si>
+  <si>
+    <t>Probability Theory I</t>
+  </si>
+  <si>
+    <t>Probability Theory II</t>
+  </si>
+  <si>
+    <t>Probability Theory III</t>
+  </si>
+  <si>
+    <t>Probability Theory IV</t>
+  </si>
+  <si>
+    <t>Intro Data Mgnt</t>
+  </si>
+  <si>
+    <t>Adv Data Science I</t>
+  </si>
+  <si>
+    <t>Adv Data Science II</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +241,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPSMT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -181,17 +274,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -467,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
@@ -475,275 +576,323 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E16">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
     </row>
@@ -754,302 +903,359 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:E17"/>
+      <selection activeCell="F17" sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
